--- a/HW 1/1D ss satd_Wessner.xlsx
+++ b/HW 1/1D ss satd_Wessner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Documents\UA Class Documents\S2021\GW Modelling\hw-wess-nerd\HW 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A7CC7E-7211-4A33-9E14-FECF43272E6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD105B3-B72E-493F-9DA6-4625DE6E2938}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,7 +162,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -436,6 +436,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -454,13 +461,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1265,37 +1265,37 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85.119053773588874</c:v>
+                  <c:v>85.119052238977375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70.238106424887619</c:v>
+                  <c:v>70.238103635503407</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55.357157597402519</c:v>
+                  <c:v>55.357153921974742</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.476207101972705</c:v>
+                  <c:v>40.476202956397024</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.595254918760347</c:v>
+                  <c:v>25.595250723878941</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.714301183621222</c:v>
+                  <c:v>10.714297326401139</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9762038951241245</c:v>
+                  <c:v>2.9762005491639623</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.3809644330616804</c:v>
+                  <c:v>2.3809614279139799</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7857239967601068</c:v>
+                  <c:v>1.7857215753476974</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1904828884946868</c:v>
+                  <c:v>1.1904812183692024</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.59524144424734338</c:v>
+                  <c:v>0.5952406091846012</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -1629,40 +1629,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="1">
-                  <c:v>1.1904756981128901E-3</c:v>
+                  <c:v>1.1904758208818101E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1904757878961004E-3</c:v>
+                  <c:v>1.1904758882779175E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1904759061988079E-3</c:v>
+                  <c:v>1.1904759770822932E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1904760396343852E-3</c:v>
+                  <c:v>1.1904760772462174E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1904761746569885E-3</c:v>
+                  <c:v>1.1904761786014466E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1904762988111299E-3</c:v>
+                  <c:v>1.1904762717982241E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1904765059226304E-3</c:v>
+                  <c:v>1.190476427267258E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1904789241248884E-3</c:v>
+                  <c:v>1.1904782424999646E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1904808726031471E-3</c:v>
+                  <c:v>1.1904797051325651E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1904822165308402E-3</c:v>
+                  <c:v>1.1904807139569899E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1904828884946868E-3</c:v>
+                  <c:v>1.1904812183692022E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1904828884946868E-3</c:v>
+                  <c:v>1.1904812183692022E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1996,37 +1996,37 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97.975077868498062</c:v>
+                  <c:v>97.975077868902332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90.109034204482498</c:v>
+                  <c:v>90.109034206436732</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74.532710119014979</c:v>
+                  <c:v>74.532710123986305</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58.956386036238086</c:v>
+                  <c:v>58.956386044143628</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51.090342377597558</c:v>
+                  <c:v>51.090342386887457</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43.224298722552298</c:v>
+                  <c:v>43.224298733115788</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.647974657563143</c:v>
+                  <c:v>27.647974670512806</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.912772121808899</c:v>
+                  <c:v>17.912772136100074</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.887849999279501</c:v>
+                  <c:v>15.887850013698511</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.732086763944801</c:v>
+                  <c:v>15.732086778223916</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.8660433819723998</c:v>
+                  <c:v>7.8660433891119572</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -2360,40 +2360,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="1">
-                  <c:v>3.1152648176952896E-4</c:v>
+                  <c:v>3.1152648170733354E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1152648174319065E-4</c:v>
+                  <c:v>3.1152648168180594E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1152648170935037E-4</c:v>
+                  <c:v>3.115264816490085E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1152648165553789E-4</c:v>
+                  <c:v>3.1152648159685355E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1152648153031796E-4</c:v>
+                  <c:v>3.1152648147549192E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.115264813879311E-4</c:v>
+                  <c:v>3.1152648133749185E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1152648129978314E-4</c:v>
+                  <c:v>3.1152648125205965E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1152648114413578E-4</c:v>
+                  <c:v>3.1152648110120744E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.115264803891382E-4</c:v>
+                  <c:v>3.1152648036947121E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.1152647066939919E-4</c:v>
+                  <c:v>3.115264709491896E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.1152647057316443E-4</c:v>
+                  <c:v>3.1152647085591915E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.1152647057316432E-4</c:v>
+                  <c:v>3.115264708559191E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4885,11 +4885,11 @@
   <sheetData>
     <row r="3" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="2:20" ht="13.15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
       <c r="Q4" s="13"/>
       <c r="R4" s="14"/>
       <c r="S4" s="14"/>
@@ -4899,12 +4899,12 @@
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
-      <c r="Q5" s="25" t="s">
+      <c r="Q5" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="27"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="30"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
@@ -5585,7 +5585,7 @@
       </c>
     </row>
     <row r="46" spans="14:15" x14ac:dyDescent="0.35">
-      <c r="N46" s="30" t="s">
+      <c r="N46" s="24" t="s">
         <v>37</v>
       </c>
       <c r="O46">
@@ -5632,7 +5632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F470DC9D-CEFB-4699-AE59-31B3E02D4F33}">
   <dimension ref="B3:V48"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="V6" sqref="V6:V20"/>
     </sheetView>
   </sheetViews>
@@ -5646,11 +5646,11 @@
   <sheetData>
     <row r="3" spans="2:22" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="2:22" ht="13.15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
       <c r="Q4" s="13"/>
       <c r="R4" s="14"/>
       <c r="S4" s="14"/>
@@ -5660,12 +5660,12 @@
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
-      <c r="Q5" s="25" t="s">
+      <c r="Q5" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="27"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="30"/>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
@@ -5804,11 +5804,11 @@
       </c>
       <c r="I9" s="1">
         <f t="shared" ref="I9:I19" ca="1" si="0">(I8*2/(1/H8+1/H9)+I10*2/(1/H9+1/H10))/(2/(1/H8+1/H9)+2/(1/H9+1/H10))</f>
-        <v>85.119053773588874</v>
+        <v>85.119052238977375</v>
       </c>
       <c r="J9" s="1">
         <f ca="1">(I8-I9)/inputs!$D$8*2/(1/H8+1/H9)</f>
-        <v>1.1904756981128901E-3</v>
+        <v>1.1904758208818101E-3</v>
       </c>
       <c r="L9">
         <f t="shared" ref="L9:L20" si="1">IF($G9=1,1,0)</f>
@@ -5850,11 +5850,11 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>70.238106424887619</v>
+        <v>70.238103635503407</v>
       </c>
       <c r="J10" s="1">
         <f ca="1">(I9-I10)/inputs!$D$8*2/(1/H9+1/H10)</f>
-        <v>1.1904757878961004E-3</v>
+        <v>1.1904758882779175E-3</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
@@ -5901,11 +5901,11 @@
       </c>
       <c r="I11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>55.357157597402519</v>
+        <v>55.357153921974742</v>
       </c>
       <c r="J11" s="1">
         <f ca="1">(I10-I11)/inputs!$D$8*2/(1/H10+1/H11)</f>
-        <v>1.1904759061988079E-3</v>
+        <v>1.1904759770822932E-3</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
@@ -5952,11 +5952,11 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>40.476207101972705</v>
+        <v>40.476202956397024</v>
       </c>
       <c r="J12" s="1">
         <f ca="1">(I11-I12)/inputs!$D$8*2/(1/H11+1/H12)</f>
-        <v>1.1904760396343852E-3</v>
+        <v>1.1904760772462174E-3</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
@@ -5995,11 +5995,11 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>25.595254918760347</v>
+        <v>25.595250723878941</v>
       </c>
       <c r="J13" s="1">
         <f ca="1">(I12-I13)/inputs!$D$8*2/(1/H12+1/H13)</f>
-        <v>1.1904761746569885E-3</v>
+        <v>1.1904761786014466E-3</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
@@ -6038,11 +6038,11 @@
       </c>
       <c r="I14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10.714301183621222</v>
+        <v>10.714297326401139</v>
       </c>
       <c r="J14" s="1">
         <f ca="1">(I13-I14)/inputs!$D$8*2/(1/H13+1/H14)</f>
-        <v>1.1904762988111299E-3</v>
+        <v>1.1904762717982241E-3</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
@@ -6081,11 +6081,11 @@
       </c>
       <c r="I15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9762038951241245</v>
+        <v>2.9762005491639623</v>
       </c>
       <c r="J15" s="1">
         <f ca="1">(I14-I15)/inputs!$D$8*2/(1/H14+1/H15)</f>
-        <v>1.1904765059226304E-3</v>
+        <v>1.190476427267258E-3</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
@@ -6124,11 +6124,11 @@
       </c>
       <c r="I16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3809644330616804</v>
+        <v>2.3809614279139799</v>
       </c>
       <c r="J16" s="1">
         <f ca="1">(I15-I16)/inputs!$D$8*2/(1/H15+1/H16)</f>
-        <v>1.1904789241248884E-3</v>
+        <v>1.1904782424999646E-3</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
@@ -6167,11 +6167,11 @@
       </c>
       <c r="I17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7857239967601068</v>
+        <v>1.7857215753476974</v>
       </c>
       <c r="J17" s="1">
         <f ca="1">(I16-I17)/inputs!$D$8*2/(1/H16+1/H17)</f>
-        <v>1.1904808726031471E-3</v>
+        <v>1.1904797051325651E-3</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
@@ -6210,11 +6210,11 @@
       </c>
       <c r="I18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1904828884946868</v>
+        <v>1.1904812183692024</v>
       </c>
       <c r="J18" s="1">
         <f ca="1">(I17-I18)/inputs!$D$8*2/(1/H17+1/H18)</f>
-        <v>1.1904822165308402E-3</v>
+        <v>1.1904807139569899E-3</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
@@ -6253,11 +6253,11 @@
       </c>
       <c r="I19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59524144424734338</v>
+        <v>0.5952406091846012</v>
       </c>
       <c r="J19" s="1">
         <f ca="1">(I18-I19)/inputs!$D$8*2/(1/H18+1/H19)</f>
-        <v>1.1904828884946868E-3</v>
+        <v>1.1904812183692022E-3</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
@@ -6300,7 +6300,7 @@
       </c>
       <c r="J20" s="1">
         <f ca="1">(I19-I20)/inputs!$D$8*2/(1/H19+1/H20)</f>
-        <v>1.1904828884946868E-3</v>
+        <v>1.1904812183692022E-3</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
@@ -6347,7 +6347,7 @@
       </c>
     </row>
     <row r="46" spans="14:15" x14ac:dyDescent="0.35">
-      <c r="N46" s="30" t="s">
+      <c r="N46" s="24" t="s">
         <v>37</v>
       </c>
       <c r="O46">
@@ -6402,11 +6402,11 @@
   <sheetData>
     <row r="3" spans="2:22" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="2:22" ht="13.15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
       <c r="Q4" s="13"/>
       <c r="R4" s="14"/>
       <c r="S4" s="14"/>
@@ -6416,12 +6416,12 @@
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
-      <c r="Q5" s="25" t="s">
+      <c r="Q5" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="27"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="30"/>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
@@ -6566,11 +6566,11 @@
       </c>
       <c r="I9" s="1">
         <f t="shared" ref="I9:I19" ca="1" si="0">(I8*2/(1/H8+1/H9)+I10*2/(1/H9+1/H10))/(2/(1/H8+1/H9)+2/(1/H9+1/H10))</f>
-        <v>97.975077868498062</v>
+        <v>97.975077868902332</v>
       </c>
       <c r="J9" s="1">
         <f ca="1">(I8-I9)/inputs!$D$8*2/(1/H8+1/H9)</f>
-        <v>3.1152648176952896E-4</v>
+        <v>3.1152648170733354E-4</v>
       </c>
       <c r="L9">
         <f t="shared" ref="L9:L20" si="1">IF($G9=1,1,0)</f>
@@ -6596,7 +6596,7 @@
       </c>
       <c r="V9">
         <f t="shared" ref="V9:V20" ca="1" si="4">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:22" ht="14.25" x14ac:dyDescent="0.45">
@@ -6616,11 +6616,11 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>90.109034204482498</v>
+        <v>90.109034206436732</v>
       </c>
       <c r="J10" s="1">
         <f ca="1">(I9-I10)/inputs!$D$8*2/(1/H9+1/H10)</f>
-        <v>3.1152648174319065E-4</v>
+        <v>3.1152648168180594E-4</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
@@ -6646,7 +6646,7 @@
       </c>
       <c r="V10">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:22" ht="14.25" x14ac:dyDescent="0.45">
@@ -6671,11 +6671,11 @@
       </c>
       <c r="I11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>74.532710119014979</v>
+        <v>74.532710123986305</v>
       </c>
       <c r="J11" s="1">
         <f ca="1">(I10-I11)/inputs!$D$8*2/(1/H10+1/H11)</f>
-        <v>3.1152648170935037E-4</v>
+        <v>3.115264816490085E-4</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
@@ -6701,7 +6701,7 @@
       </c>
       <c r="V11">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -6726,11 +6726,11 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>58.956386036238086</v>
+        <v>58.956386044143628</v>
       </c>
       <c r="J12" s="1">
         <f ca="1">(I11-I12)/inputs!$D$8*2/(1/H11+1/H12)</f>
-        <v>3.1152648165553789E-4</v>
+        <v>3.1152648159685355E-4</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="V12">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:22" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
@@ -6773,11 +6773,11 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>51.090342377597558</v>
+        <v>51.090342386887457</v>
       </c>
       <c r="J13" s="1">
         <f ca="1">(I12-I13)/inputs!$D$8*2/(1/H12+1/H13)</f>
-        <v>3.1152648153031796E-4</v>
+        <v>3.1152648147549192E-4</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
@@ -6803,7 +6803,7 @@
       </c>
       <c r="V13">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:22" ht="14.25" x14ac:dyDescent="0.45">
@@ -6820,11 +6820,11 @@
       </c>
       <c r="I14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43.224298722552298</v>
+        <v>43.224298733115788</v>
       </c>
       <c r="J14" s="1">
         <f ca="1">(I13-I14)/inputs!$D$8*2/(1/H13+1/H14)</f>
-        <v>3.115264813879311E-4</v>
+        <v>3.1152648133749185E-4</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
@@ -6850,7 +6850,7 @@
       </c>
       <c r="V14">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:22" ht="14.25" x14ac:dyDescent="0.45">
@@ -6867,11 +6867,11 @@
       </c>
       <c r="I15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>27.647974657563143</v>
+        <v>27.647974670512806</v>
       </c>
       <c r="J15" s="1">
         <f ca="1">(I14-I15)/inputs!$D$8*2/(1/H14+1/H15)</f>
-        <v>3.1152648129978314E-4</v>
+        <v>3.1152648125205965E-4</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
@@ -6897,7 +6897,7 @@
       </c>
       <c r="V15">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:22" ht="14.25" x14ac:dyDescent="0.45">
@@ -6914,11 +6914,11 @@
       </c>
       <c r="I16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>17.912772121808899</v>
+        <v>17.912772136100074</v>
       </c>
       <c r="J16" s="1">
         <f ca="1">(I15-I16)/inputs!$D$8*2/(1/H15+1/H16)</f>
-        <v>3.1152648114413578E-4</v>
+        <v>3.1152648110120744E-4</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
@@ -6944,7 +6944,7 @@
       </c>
       <c r="V16">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="6:22" ht="14.25" x14ac:dyDescent="0.45">
@@ -6961,11 +6961,11 @@
       </c>
       <c r="I17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>15.887849999279501</v>
+        <v>15.887850013698511</v>
       </c>
       <c r="J17" s="1">
         <f ca="1">(I16-I17)/inputs!$D$8*2/(1/H16+1/H17)</f>
-        <v>3.115264803891382E-4</v>
+        <v>3.1152648036947121E-4</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
@@ -7008,11 +7008,11 @@
       </c>
       <c r="I18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>15.732086763944801</v>
+        <v>15.732086778223916</v>
       </c>
       <c r="J18" s="1">
         <f ca="1">(I17-I18)/inputs!$D$8*2/(1/H17+1/H18)</f>
-        <v>3.1152647066939919E-4</v>
+        <v>3.115264709491896E-4</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
@@ -7055,11 +7055,11 @@
       </c>
       <c r="I19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8660433819723998</v>
+        <v>7.8660433891119572</v>
       </c>
       <c r="J19" s="1">
         <f ca="1">(I18-I19)/inputs!$D$8*2/(1/H18+1/H19)</f>
-        <v>3.1152647057316443E-4</v>
+        <v>3.1152647085591915E-4</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
@@ -7085,7 +7085,7 @@
       </c>
       <c r="V19">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="6:22" ht="14.25" x14ac:dyDescent="0.45">
@@ -7106,7 +7106,7 @@
       </c>
       <c r="J20" s="1">
         <f ca="1">(I19-I20)/inputs!$D$8*2/(1/H19+1/H20)</f>
-        <v>3.1152647057316432E-4</v>
+        <v>3.115264708559191E-4</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
@@ -7157,7 +7157,7 @@
       </c>
     </row>
     <row r="46" spans="14:15" x14ac:dyDescent="0.35">
-      <c r="N46" s="30" t="s">
+      <c r="N46" s="24" t="s">
         <v>37</v>
       </c>
       <c r="O46">
@@ -7199,7 +7199,7 @@
   <dimension ref="B3:T48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43:O48"/>
+      <selection activeCell="S52" sqref="S52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -7212,11 +7212,11 @@
   <sheetData>
     <row r="3" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="2:20" ht="13.15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
       <c r="Q4" s="13"/>
       <c r="R4" s="14"/>
       <c r="S4" s="14"/>
@@ -7226,12 +7226,12 @@
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
-      <c r="Q5" s="25" t="s">
+      <c r="Q5" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="27"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="30"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
@@ -7310,10 +7310,10 @@
         <f>F9+inputs!$D$8</f>
         <v>60</v>
       </c>
-      <c r="G8" s="29">
-        <v>1</v>
-      </c>
-      <c r="H8" s="28">
+      <c r="G8" s="23">
+        <v>1</v>
+      </c>
+      <c r="H8" s="22">
         <f>$C$11</f>
         <v>8.3333333333333339E-4</v>
       </c>
@@ -7360,10 +7360,10 @@
         <f>F10+inputs!$D$8</f>
         <v>55</v>
       </c>
-      <c r="G9" s="29">
-        <v>1</v>
-      </c>
-      <c r="H9" s="28">
+      <c r="G9" s="23">
+        <v>1</v>
+      </c>
+      <c r="H9" s="22">
         <f t="shared" ref="H9:H20" si="0">$C$11</f>
         <v>8.3333333333333339E-4</v>
       </c>
@@ -7409,7 +7409,7 @@
       <c r="G10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="22">
         <f t="shared" si="0"/>
         <v>8.3333333333333339E-4</v>
       </c>
@@ -7460,7 +7460,7 @@
       <c r="G11" s="1">
         <v>1</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="22">
         <f t="shared" si="0"/>
         <v>8.3333333333333339E-4</v>
       </c>
@@ -7511,7 +7511,7 @@
       <c r="G12" s="1">
         <v>1</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="22">
         <f t="shared" si="0"/>
         <v>8.3333333333333339E-4</v>
       </c>
@@ -7554,7 +7554,7 @@
       <c r="G13" s="1">
         <v>1</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="22">
         <f t="shared" si="0"/>
         <v>8.3333333333333339E-4</v>
       </c>
@@ -7597,7 +7597,7 @@
       <c r="G14" s="1">
         <v>2</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="22">
         <f t="shared" si="0"/>
         <v>8.3333333333333339E-4</v>
       </c>
@@ -7640,7 +7640,7 @@
       <c r="G15" s="1">
         <v>2</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="22">
         <f t="shared" si="0"/>
         <v>8.3333333333333339E-4</v>
       </c>
@@ -7683,7 +7683,7 @@
       <c r="G16" s="1">
         <v>2</v>
       </c>
-      <c r="H16" s="28">
+      <c r="H16" s="22">
         <f t="shared" si="0"/>
         <v>8.3333333333333339E-4</v>
       </c>
@@ -7726,7 +7726,7 @@
       <c r="G17" s="1">
         <v>2</v>
       </c>
-      <c r="H17" s="28">
+      <c r="H17" s="22">
         <f t="shared" si="0"/>
         <v>8.3333333333333339E-4</v>
       </c>
@@ -7769,7 +7769,7 @@
       <c r="G18" s="1">
         <v>2</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="22">
         <f t="shared" si="0"/>
         <v>8.3333333333333339E-4</v>
       </c>
@@ -7812,7 +7812,7 @@
       <c r="G19" s="1">
         <v>2</v>
       </c>
-      <c r="H19" s="28">
+      <c r="H19" s="22">
         <f t="shared" si="0"/>
         <v>8.3333333333333339E-4</v>
       </c>
@@ -7855,7 +7855,7 @@
       <c r="G20" s="1">
         <v>2</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="22">
         <f t="shared" si="0"/>
         <v>8.3333333333333339E-4</v>
       </c>
@@ -7912,7 +7912,7 @@
       </c>
     </row>
     <row r="46" spans="14:15" x14ac:dyDescent="0.35">
-      <c r="N46" s="30" t="s">
+      <c r="N46" s="24" t="s">
         <v>37</v>
       </c>
       <c r="O46">
